--- a/十一月销售数据/用户保险信息金鹤园二期11-1.xlsx
+++ b/十一月销售数据/用户保险信息金鹤园二期11-1.xlsx
@@ -1455,9 +1455,6 @@
     <t>226316001105700</t>
   </si>
   <si>
-    <t>226316001105701</t>
-  </si>
-  <si>
     <t>226316001105712</t>
   </si>
   <si>
@@ -1987,6 +1984,10 @@
   </si>
   <si>
     <t>打电话问一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>226316001105710</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1994,7 +1995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2024,6 +2025,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2085,7 +2093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2167,9 +2175,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2181,6 +2186,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2528,8 +2539,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2553,18 +2564,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="24">
       <c r="A2" s="3" t="s">
@@ -3150,10 +3161,10 @@
         <v>43040</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -3708,13 +3719,13 @@
         <v>43040</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="32" t="s">
         <v>160</v>
       </c>
       <c r="G38" s="2"/>
@@ -4266,13 +4277,13 @@
         <v>43040</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="32" t="s">
         <v>264</v>
       </c>
       <c r="G56" s="2"/>
@@ -4859,20 +4870,20 @@
         <v>398</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="7"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L75" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -4890,20 +4901,20 @@
         <v>399</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="7"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L76" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -4921,20 +4932,20 @@
         <v>400</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="7"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L77" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -4952,20 +4963,20 @@
         <v>401</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="7"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L78" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -4979,24 +4990,24 @@
         <v>43040</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="26" t="s">
-        <v>402</v>
+      <c r="D79" s="34" t="s">
+        <v>545</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="7"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L79" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -5014,20 +5025,20 @@
         <v>213</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="7"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L80" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -5045,20 +5056,20 @@
         <v>214</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="7"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L81" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -5076,20 +5087,20 @@
         <v>215</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="7"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L82" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -5107,20 +5118,20 @@
         <v>216</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="7"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L83" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -5138,20 +5149,20 @@
         <v>217</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="7"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L84" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -5169,20 +5180,20 @@
         <v>218</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="7"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L85" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -5200,20 +5211,20 @@
         <v>219</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="7"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L86" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -5231,20 +5242,20 @@
         <v>220</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="7"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L87" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -5262,20 +5273,20 @@
         <v>221</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="7"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L88" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -5293,20 +5304,20 @@
         <v>227</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="7"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L89" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -5321,23 +5332,23 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="7"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L90" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -5352,23 +5363,23 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="7"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L91" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -5383,25 +5394,25 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L92" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -5416,23 +5427,23 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="7"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L93" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -5447,23 +5458,23 @@
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="7"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L94" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -5478,23 +5489,23 @@
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="7"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L95" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -5509,23 +5520,23 @@
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="7"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L96" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -5540,23 +5551,23 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="7"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L97" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -5571,23 +5582,23 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="7"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L98" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -5602,23 +5613,23 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="7"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L99" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -5633,10 +5644,10 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>69</v>
@@ -5646,10 +5657,10 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L100" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -5664,23 +5675,23 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="7"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L101" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -5695,23 +5706,23 @@
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="26" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="7"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L102" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -5726,23 +5737,23 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="7"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L103" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -5754,12 +5765,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5799,18 +5810,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
       <c r="B1" s="1"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="24">
       <c r="A2" s="3" t="s">
@@ -6205,12 +6216,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6239,7 +6250,7 @@
         <v>22631600110</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1" t="str">
         <f>A1&amp;B1</f>
@@ -6251,7 +6262,7 @@
         <v>22631600110</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C27" si="0">A2&amp;B2</f>
@@ -6263,7 +6274,7 @@
         <v>22631600110</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -6275,7 +6286,7 @@
         <v>22631600110</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -6287,7 +6298,7 @@
         <v>22631600110</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -6299,7 +6310,7 @@
         <v>22631600110</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -6311,7 +6322,7 @@
         <v>22631600110</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -6323,7 +6334,7 @@
         <v>22631600110</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -6335,7 +6346,7 @@
         <v>22631600110</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -6347,7 +6358,7 @@
         <v>22631600110</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -6371,7 +6382,7 @@
         <v>22631600110</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -6383,7 +6394,7 @@
         <v>22631600110</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -6395,7 +6406,7 @@
         <v>22631600110</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
